--- a/01_LOG_SHEET_OF_CHANGES.xlsx
+++ b/01_LOG_SHEET_OF_CHANGES.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert Sze\Documents\CS506_Computational_Tools_for_Data_Science\CS506_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alber\OneDrive\Documents\Boston University\CS506_Computational Tools for Data Science\CS506_Project\CS506_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61F631C-9F3A-4F1D-BBC3-6F619D73D1AD}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{B7CF3A79-3DDD-4728-A3E0-E283188C8A87}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Log  of Changes</t>
   </si>
@@ -43,12 +42,17 @@
   </si>
   <si>
     <t>Create Extracting_Data.ipynb file which extracts data from DISP_AllStatesAndTerritories.xlsx and the creates a panda dataframe for each state.</t>
+  </si>
+  <si>
+    <t>Added Clustering_Albert.ipynb, which generates training, 4 test sets, and clustering code.
+- training data consists of 2/3 of data
+- 1 test set consists of 1/12 of data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,11 +411,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445996FD-A45A-4D0D-A6D9-F9D942CCC745}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,6 +454,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43178</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
